--- a/WPA_Org1-5_Data_Dictionary.xlsx
+++ b/WPA_Org1-5_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namsa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aasim/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C4169D-614E-4970-8C5A-B2301984AEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E832721-2F19-DB45-9A81-124DCE26CF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{F2679FA7-82AF-4B7B-BF50-23515C45C456}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{F2679FA7-82AF-4B7B-BF50-23515C45C456}"/>
   </bookViews>
   <sheets>
     <sheet name="Org 1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -42,24 +53,33 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={BE7CEEFB-B532-AA44-BF61-6A3BB72CCBCE}</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{BE7CEEFB-B532-AA44-BF61-6A3BB72CCBCE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I don’t think all of these variables are IC - I think these are more Demographics</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={C4EC7DA6-C3D0-461D-A0EE-AC4643011B62}</author>
   </authors>
   <commentList>
     <comment ref="F142" authorId="0" shapeId="0" xr:uid="{C4EC7DA6-C3D0-461D-A0EE-AC4643011B62}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Would need to reverse code</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -67,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="434">
   <si>
     <t>Variable Type</t>
   </si>
@@ -1344,13 +1364,40 @@
   <si>
     <t>Current In Person Collab Work 
 (1-3 people; 4-10+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very unimportant - 1, Unimportant - 2, Neutral - 3, Important - 4, Very imprtant -5 </t>
+  </si>
+  <si>
+    <t>Coded right</t>
+  </si>
+  <si>
+    <t>No need to recode</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Very unsatisfied - 1, Unsatisfied - 2, Neutral - 3, Satisfied - 4, Very Unsatisfied - 5</t>
+  </si>
+  <si>
+    <t>1 - 0.8 ( 1 - Remote) /. 0.79 - 0.20 (2. -Hybrid)/ 0 -0.19 (3 - Office)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Strongly disagee- 1, Disagree - 2, Neutral - 3, Agree - 4, Strongly agree - 5</t>
+  </si>
+  <si>
+    <t>Pallavi shared</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,6 +1435,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1409,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1441,33 +1516,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1476,13 +1532,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5254,6 +5351,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Pallavi Janiani" id="{5B7F7D7F-8115-48A9-899C-EC69F7FDE63B}" userId="6634de9d4d3e9621" providerId="Windows Live"/>
+  <person displayName="Aasim Yacub" id="{08F1BE37-F87A-D044-BE66-8FCA44C90784}" userId="S::my2894@nyu.edu::82534ee6-c5a0-4220-8fce-15822646acb2" providerId="AD"/>
 </personList>
 </file>
 
@@ -5574,6 +5672,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I2" dT="2024-02-10T15:47:12.87" personId="{08F1BE37-F87A-D044-BE66-8FCA44C90784}" id="{BE7CEEFB-B532-AA44-BF61-6A3BB72CCBCE}">
+    <text>I don’t think all of these variables are IC - I think these are more Demographics</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="F142" dT="2024-02-08T20:17:07.19" personId="{5B7F7D7F-8115-48A9-899C-EC69F7FDE63B}" id="{C4EC7DA6-C3D0-461D-A0EE-AC4643011B62}">
     <text>Would need to reverse code</text>
   </threadedComment>
@@ -5584,26 +5690,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F932A8-43AE-41F4-9C65-BEE71C12C2C4}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B31"/>
+    <sheetView topLeftCell="A88" zoomScale="72" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97:H117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.36328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="67.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="67.1640625" customWidth="1"/>
+    <col min="5" max="5" width="45.5" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5621,11 +5728,11 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -5652,7 +5759,7 @@
         <v>factor (17)</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5786,7 @@
         <v>logical</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -5706,7 +5813,7 @@
         <v>factor (5)</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -5733,7 +5840,7 @@
         <v>logical</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>143</v>
       </c>
@@ -5759,12 +5866,15 @@
         <f>_xlfn.XLOOKUP(C6,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="H6" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>155</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5786,10 +5896,11 @@
         <f>_xlfn.XLOOKUP(C7,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
@@ -5809,10 +5920,11 @@
         <f>_xlfn.XLOOKUP(C8,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4" t="s">
         <v>72</v>
       </c>
@@ -5832,10 +5944,11 @@
         <f>_xlfn.XLOOKUP(C9,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
         <v>73</v>
       </c>
@@ -5855,10 +5968,11 @@
         <f>_xlfn.XLOOKUP(C10,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="4" t="s">
         <v>74</v>
       </c>
@@ -5878,10 +5992,11 @@
         <f>_xlfn.XLOOKUP(C11,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
         <v>75</v>
       </c>
@@ -5901,10 +6016,11 @@
         <f>_xlfn.XLOOKUP(C12,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
         <v>76</v>
       </c>
@@ -5924,10 +6040,11 @@
         <f>_xlfn.XLOOKUP(C13,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
         <v>77</v>
       </c>
@@ -5947,10 +6064,11 @@
         <f>_xlfn.XLOOKUP(C14,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
         <v>78</v>
       </c>
@@ -5970,10 +6088,11 @@
         <f>_xlfn.XLOOKUP(C15,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
         <v>79</v>
       </c>
@@ -5993,10 +6112,11 @@
         <f>_xlfn.XLOOKUP(C16,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="4" t="s">
         <v>80</v>
       </c>
@@ -6016,10 +6136,11 @@
         <f>_xlfn.XLOOKUP(C17,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="4" t="s">
         <v>81</v>
       </c>
@@ -6039,12 +6160,13 @@
         <f>_xlfn.XLOOKUP(C18,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>216</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -6066,10 +6188,11 @@
         <f>_xlfn.XLOOKUP(C19,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
@@ -6089,10 +6212,11 @@
         <f>_xlfn.XLOOKUP(C20,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
@@ -6112,12 +6236,13 @@
         <f>_xlfn.XLOOKUP(C21,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -6139,10 +6264,11 @@
         <f>_xlfn.XLOOKUP(C22,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
@@ -6162,10 +6288,11 @@
         <f>_xlfn.XLOOKUP(C23,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="4" t="s">
         <v>60</v>
       </c>
@@ -6185,10 +6312,11 @@
         <f>_xlfn.XLOOKUP(C24,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
@@ -6208,8 +6336,9 @@
         <f>_xlfn.XLOOKUP(C25,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -6235,8 +6364,9 @@
         <f>_xlfn.XLOOKUP(C26,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -6262,8 +6392,9 @@
         <f>_xlfn.XLOOKUP(C27,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -6289,12 +6420,13 @@
         <f>_xlfn.XLOOKUP(C28,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>423</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -6316,10 +6448,11 @@
         <f>_xlfn.XLOOKUP(C29,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
@@ -6339,10 +6472,11 @@
         <f>_xlfn.XLOOKUP(C30,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="4" t="s">
         <v>54</v>
       </c>
@@ -6362,12 +6496,13 @@
         <f>_xlfn.XLOOKUP(C31,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="12" t="s">
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>154</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -6389,12 +6524,13 @@
         <f>_xlfn.XLOOKUP(C32,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (6)</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="12"/>
+      <c r="H32" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="4" t="s">
         <v>62</v>
       </c>
@@ -6414,8 +6550,9 @@
         <f>_xlfn.XLOOKUP(C33,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (6)</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -6442,25 +6579,25 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="30" t="str">
         <f>_xlfn.XLOOKUP(C35,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!D:D)</f>
         <v>In a typical week that you were in the office pre-COVID, what percentage of time did you spend working at: (1% = ~25 minutes)</v>
       </c>
-      <c r="E35" s="4" t="str">
+      <c r="E35" s="30" t="str">
         <f>_xlfn.XLOOKUP(C35,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!E:E)</f>
         <v>Your desk/office</v>
       </c>
-      <c r="F35" s="4" t="str">
+      <c r="F35" s="30" t="str">
         <f>_xlfn.XLOOKUP(C35,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!F:F)</f>
         <v>fraction of work time {0:1}</v>
       </c>
@@ -6469,21 +6606,21 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="4" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="30" t="str">
         <f>_xlfn.XLOOKUP(C36,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!D:D)</f>
         <v>In a typical week that you were in the office pre-COVID, what percentage of time did you spend working at: (1% = ~25 minutes)</v>
       </c>
-      <c r="E36" s="4" t="str">
+      <c r="E36" s="30" t="str">
         <f>_xlfn.XLOOKUP(C36,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!E:E)</f>
         <v>Someone else's desk/office</v>
       </c>
-      <c r="F36" s="4" t="str">
+      <c r="F36" s="30" t="str">
         <f>_xlfn.XLOOKUP(C36,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!F:F)</f>
         <v>fraction of work time {0:1}</v>
       </c>
@@ -6492,21 +6629,21 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="4" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="30" t="str">
         <f>_xlfn.XLOOKUP(C37,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!D:D)</f>
         <v>In a typical week that you were in the office pre-COVID, what percentage of time did you spend working at: (1% = ~25 minutes)</v>
       </c>
-      <c r="E37" s="4" t="str">
+      <c r="E37" s="30" t="str">
         <f>_xlfn.XLOOKUP(C37,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!E:E)</f>
         <v>A meeting or training room</v>
       </c>
-      <c r="F37" s="4" t="str">
+      <c r="F37" s="30" t="str">
         <f>_xlfn.XLOOKUP(C37,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!F:F)</f>
         <v>fraction of work time {0:1}</v>
       </c>
@@ -6515,21 +6652,21 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="4" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="30" t="str">
         <f>_xlfn.XLOOKUP(C38,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!D:D)</f>
         <v>In a typical week that you were in the office pre-COVID, what percentage of time did you spend working at: (1% = ~25 minutes)</v>
       </c>
-      <c r="E38" s="4" t="str">
+      <c r="E38" s="30" t="str">
         <f>_xlfn.XLOOKUP(C38,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!E:E)</f>
         <v>The lobby / customer area</v>
       </c>
-      <c r="F38" s="4" t="str">
+      <c r="F38" s="30" t="str">
         <f>_xlfn.XLOOKUP(C38,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!F:F)</f>
         <v>fraction of work time {0:1}</v>
       </c>
@@ -6538,21 +6675,21 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="4" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="30" t="str">
         <f>_xlfn.XLOOKUP(C39,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!D:D)</f>
         <v>In a typical week that you were in the office pre-COVID, what percentage of time did you spend working at: (1% = ~25 minutes)</v>
       </c>
-      <c r="E39" s="4" t="str">
+      <c r="E39" s="30" t="str">
         <f>_xlfn.XLOOKUP(C39,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!E:E)</f>
         <v>Specialty spaces</v>
       </c>
-      <c r="F39" s="4" t="str">
+      <c r="F39" s="30" t="str">
         <f>_xlfn.XLOOKUP(C39,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!F:F)</f>
         <v>fraction of work time {0:1}</v>
       </c>
@@ -6561,21 +6698,21 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="4" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="30" t="str">
         <f>_xlfn.XLOOKUP(C40,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!D:D)</f>
         <v>In a typical week that you were in the office pre-COVID, what percentage of time did you spend working at: (1% = ~25 minutes)</v>
       </c>
-      <c r="E40" s="4" t="str">
+      <c r="E40" s="30" t="str">
         <f>_xlfn.XLOOKUP(C40,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!E:E)</f>
         <v>Other spaces within the office</v>
       </c>
-      <c r="F40" s="4" t="str">
+      <c r="F40" s="30" t="str">
         <f>_xlfn.XLOOKUP(C40,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!F:F)</f>
         <v>fraction of work time {0:1}</v>
       </c>
@@ -6584,11 +6721,11 @@
         <v>numeric</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="12" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -6610,10 +6747,13 @@
         <f>_xlfn.XLOOKUP(C41,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
+      <c r="H41" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="4" t="s">
         <v>38</v>
       </c>
@@ -6633,10 +6773,11 @@
         <f>_xlfn.XLOOKUP(C42,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
@@ -6656,10 +6797,11 @@
         <f>_xlfn.XLOOKUP(C43,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="4" t="s">
         <v>40</v>
       </c>
@@ -6679,10 +6821,11 @@
         <f>_xlfn.XLOOKUP(C44,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="4" t="s">
         <v>41</v>
       </c>
@@ -6702,10 +6845,11 @@
         <f>_xlfn.XLOOKUP(C45,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="4" t="s">
         <v>42</v>
       </c>
@@ -6725,12 +6869,13 @@
         <f>_xlfn.XLOOKUP(C46,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="12" t="s">
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>210</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -6752,10 +6897,11 @@
         <f>_xlfn.XLOOKUP(C47,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="4" t="s">
         <v>83</v>
       </c>
@@ -6775,10 +6921,11 @@
         <f>_xlfn.XLOOKUP(C48,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="4" t="s">
         <v>84</v>
       </c>
@@ -6798,10 +6945,11 @@
         <f>_xlfn.XLOOKUP(C49,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="4" t="s">
         <v>85</v>
       </c>
@@ -6821,10 +6969,11 @@
         <f>_xlfn.XLOOKUP(C50,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="4" t="s">
         <v>86</v>
       </c>
@@ -6844,10 +6993,11 @@
         <f>_xlfn.XLOOKUP(C51,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="4" t="s">
         <v>87</v>
       </c>
@@ -6867,12 +7017,13 @@
         <f>_xlfn.XLOOKUP(C52,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="24" t="s">
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="20" t="s">
         <v>178</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -6894,10 +7045,13 @@
         <f>_xlfn.XLOOKUP(C53,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
+      <c r="H53" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4" t="s">
         <v>112</v>
       </c>
@@ -6917,10 +7071,11 @@
         <f>_xlfn.XLOOKUP(C54,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
+      <c r="H54" s="26"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="4" t="s">
         <v>113</v>
       </c>
@@ -6940,10 +7095,11 @@
         <f>_xlfn.XLOOKUP(C55,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
+      <c r="H55" s="26"/>
+    </row>
+    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="4" t="s">
         <v>114</v>
       </c>
@@ -6963,10 +7119,11 @@
         <f>_xlfn.XLOOKUP(C56,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
+      <c r="H56" s="26"/>
+    </row>
+    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="4" t="s">
         <v>115</v>
       </c>
@@ -6986,12 +7143,13 @@
         <f>_xlfn.XLOOKUP(C57,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="12" t="s">
+      <c r="H57" s="26"/>
+    </row>
+    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -7013,10 +7171,13 @@
         <f>_xlfn.XLOOKUP(C58,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
+      <c r="H58" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="4" t="s">
         <v>29</v>
       </c>
@@ -7036,10 +7197,11 @@
         <f>_xlfn.XLOOKUP(C59,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
+      <c r="H59" s="26"/>
+    </row>
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="4" t="s">
         <v>30</v>
       </c>
@@ -7059,10 +7221,11 @@
         <f>_xlfn.XLOOKUP(C60,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="4" t="s">
         <v>31</v>
       </c>
@@ -7082,10 +7245,11 @@
         <f>_xlfn.XLOOKUP(C61,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="4" t="s">
         <v>32</v>
       </c>
@@ -7105,10 +7269,11 @@
         <f>_xlfn.XLOOKUP(C62,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="4" t="s">
         <v>33</v>
       </c>
@@ -7128,10 +7293,11 @@
         <f>_xlfn.XLOOKUP(C63,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
+      <c r="H63" s="26"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="4" t="s">
         <v>34</v>
       </c>
@@ -7151,12 +7317,13 @@
         <f>_xlfn.XLOOKUP(C64,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" s="12" t="s">
+      <c r="H64" s="26"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -7178,10 +7345,11 @@
         <f>_xlfn.XLOOKUP(C65,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
+      <c r="H65" s="26"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="4" t="s">
         <v>44</v>
       </c>
@@ -7201,10 +7369,11 @@
         <f>_xlfn.XLOOKUP(C66,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
+      <c r="H66" s="26"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="4" t="s">
         <v>45</v>
       </c>
@@ -7224,10 +7393,11 @@
         <f>_xlfn.XLOOKUP(C67,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
+      <c r="H67" s="26"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="4" t="s">
         <v>46</v>
       </c>
@@ -7247,10 +7417,11 @@
         <f>_xlfn.XLOOKUP(C68,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
+      <c r="H68" s="26"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="4" t="s">
         <v>47</v>
       </c>
@@ -7270,10 +7441,11 @@
         <f>_xlfn.XLOOKUP(C69,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
+      <c r="H69" s="26"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="4" t="s">
         <v>48</v>
       </c>
@@ -7293,10 +7465,11 @@
         <f>_xlfn.XLOOKUP(C70,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
+      <c r="H70" s="26"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="4" t="s">
         <v>49</v>
       </c>
@@ -7316,12 +7489,13 @@
         <f>_xlfn.XLOOKUP(C71,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="12" t="s">
+      <c r="H71" s="26"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -7343,10 +7517,13 @@
         <f>_xlfn.XLOOKUP(C72,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
+      <c r="H72" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="4" t="s">
         <v>95</v>
       </c>
@@ -7366,10 +7543,11 @@
         <f>_xlfn.XLOOKUP(C73,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
+      <c r="H73" s="26"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="4" t="s">
         <v>96</v>
       </c>
@@ -7389,10 +7567,11 @@
         <f>_xlfn.XLOOKUP(C74,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
+      <c r="H74" s="26"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="4" t="s">
         <v>97</v>
       </c>
@@ -7412,10 +7591,11 @@
         <f>_xlfn.XLOOKUP(C75,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
+      <c r="H75" s="26"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="4" t="s">
         <v>98</v>
       </c>
@@ -7435,10 +7615,11 @@
         <f>_xlfn.XLOOKUP(C76,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="4" t="s">
         <v>99</v>
       </c>
@@ -7458,10 +7639,11 @@
         <f>_xlfn.XLOOKUP(C77,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
+      <c r="H77" s="26"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="4" t="s">
         <v>100</v>
       </c>
@@ -7481,10 +7663,11 @@
         <f>_xlfn.XLOOKUP(C78,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
+      <c r="H78" s="26"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="4" t="s">
         <v>101</v>
       </c>
@@ -7504,10 +7687,11 @@
         <f>_xlfn.XLOOKUP(C79,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
+      <c r="H79" s="26"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="4" t="s">
         <v>102</v>
       </c>
@@ -7527,10 +7711,11 @@
         <f>_xlfn.XLOOKUP(C80,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
+      <c r="H80" s="26"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="4" t="s">
         <v>103</v>
       </c>
@@ -7550,10 +7735,11 @@
         <f>_xlfn.XLOOKUP(C81,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
+      <c r="H81" s="26"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="17"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="4" t="s">
         <v>104</v>
       </c>
@@ -7573,10 +7759,11 @@
         <f>_xlfn.XLOOKUP(C82,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
+      <c r="H82" s="26"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
@@ -7596,10 +7783,11 @@
         <f>_xlfn.XLOOKUP(C83,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
+      <c r="H83" s="26"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="4" t="s">
         <v>106</v>
       </c>
@@ -7619,10 +7807,11 @@
         <f>_xlfn.XLOOKUP(C84,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
+      <c r="H84" s="26"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="17"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="4" t="s">
         <v>107</v>
       </c>
@@ -7642,10 +7831,11 @@
         <f>_xlfn.XLOOKUP(C85,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
+      <c r="H85" s="26"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="17"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="4" t="s">
         <v>108</v>
       </c>
@@ -7665,10 +7855,11 @@
         <f>_xlfn.XLOOKUP(C86,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
+      <c r="H86" s="26"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="4" t="s">
         <v>109</v>
       </c>
@@ -7688,10 +7879,11 @@
         <f>_xlfn.XLOOKUP(C87,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
+      <c r="H87" s="26"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="4" t="s">
         <v>110</v>
       </c>
@@ -7711,12 +7903,13 @@
         <f>_xlfn.XLOOKUP(C88,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="11" t="s">
+      <c r="H88" s="26"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -7739,9 +7932,9 @@
         <v>factor (13)</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="4" t="s">
         <v>20</v>
       </c>
@@ -7762,9 +7955,9 @@
         <v>factor (13)</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="4" t="s">
         <v>21</v>
       </c>
@@ -7785,9 +7978,9 @@
         <v>factor (13)</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="4" t="s">
         <v>22</v>
       </c>
@@ -7808,9 +8001,9 @@
         <v>factor (13)</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="4" t="s">
         <v>23</v>
       </c>
@@ -7831,9 +8024,9 @@
         <v>factor (13)</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="4" t="s">
         <v>24</v>
       </c>
@@ -7854,9 +8047,9 @@
         <v>factor (13)</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="4" t="s">
         <v>25</v>
       </c>
@@ -7877,7 +8070,7 @@
         <v>factor (13)</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>16</v>
       </c>
@@ -7903,12 +8096,15 @@
         <f>_xlfn.XLOOKUP(C96,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="12" t="s">
+      <c r="H96" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="18" t="s">
         <v>183</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -7930,10 +8126,13 @@
         <f>_xlfn.XLOOKUP(C97,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
+      <c r="H97" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="4" t="s">
         <v>89</v>
       </c>
@@ -7953,10 +8152,11 @@
         <f>_xlfn.XLOOKUP(C98,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
+      <c r="H98" s="26"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="4" t="s">
         <v>90</v>
       </c>
@@ -7976,10 +8176,11 @@
         <f>_xlfn.XLOOKUP(C99,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
+      <c r="H99" s="26"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="4" t="s">
         <v>91</v>
       </c>
@@ -7999,10 +8200,11 @@
         <f>_xlfn.XLOOKUP(C100,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
+      <c r="H100" s="26"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="4" t="s">
         <v>92</v>
       </c>
@@ -8022,10 +8224,11 @@
         <f>_xlfn.XLOOKUP(C101,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
+      <c r="H101" s="26"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="4" t="s">
         <v>137</v>
       </c>
@@ -8045,10 +8248,11 @@
         <f>_xlfn.XLOOKUP(C102,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="11"/>
-      <c r="B103" s="12"/>
+      <c r="H102" s="26"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="4" t="s">
         <v>138</v>
       </c>
@@ -8068,10 +8272,11 @@
         <f>_xlfn.XLOOKUP(C103,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
+      <c r="H103" s="26"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="4" t="s">
         <v>139</v>
       </c>
@@ -8091,10 +8296,11 @@
         <f>_xlfn.XLOOKUP(C104,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
+      <c r="H104" s="26"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="4" t="s">
         <v>140</v>
       </c>
@@ -8114,10 +8320,11 @@
         <f>_xlfn.XLOOKUP(C105,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
+      <c r="H105" s="26"/>
+    </row>
+    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="4" t="s">
         <v>141</v>
       </c>
@@ -8137,10 +8344,11 @@
         <f>_xlfn.XLOOKUP(C106,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
+      <c r="H106" s="26"/>
+    </row>
+    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="17"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="4" t="s">
         <v>142</v>
       </c>
@@ -8160,10 +8368,11 @@
         <f>_xlfn.XLOOKUP(C107,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
+      <c r="H107" s="26"/>
+    </row>
+    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="4" t="s">
         <v>127</v>
       </c>
@@ -8183,10 +8392,11 @@
         <f>_xlfn.XLOOKUP(C108,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
+      <c r="H108" s="26"/>
+    </row>
+    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="4" t="s">
         <v>128</v>
       </c>
@@ -8206,10 +8416,11 @@
         <f>_xlfn.XLOOKUP(C109,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
+      <c r="H109" s="26"/>
+    </row>
+    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="4" t="s">
         <v>129</v>
       </c>
@@ -8229,10 +8440,11 @@
         <f>_xlfn.XLOOKUP(C110,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
+      <c r="H110" s="26"/>
+    </row>
+    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="4" t="s">
         <v>130</v>
       </c>
@@ -8252,10 +8464,11 @@
         <f>_xlfn.XLOOKUP(C111,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
+      <c r="H111" s="26"/>
+    </row>
+    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="4" t="s">
         <v>131</v>
       </c>
@@ -8275,10 +8488,11 @@
         <f>_xlfn.XLOOKUP(C112,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
+      <c r="H112" s="26"/>
+    </row>
+    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="4" t="s">
         <v>132</v>
       </c>
@@ -8298,10 +8512,11 @@
         <f>_xlfn.XLOOKUP(C113,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
+      <c r="H113" s="26"/>
+    </row>
+    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="4" t="s">
         <v>133</v>
       </c>
@@ -8321,10 +8536,11 @@
         <f>_xlfn.XLOOKUP(C114,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
+      <c r="H114" s="26"/>
+    </row>
+    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="4" t="s">
         <v>134</v>
       </c>
@@ -8344,10 +8560,11 @@
         <f>_xlfn.XLOOKUP(C115,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
+      <c r="H115" s="26"/>
+    </row>
+    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="4" t="s">
         <v>135</v>
       </c>
@@ -8367,10 +8584,11 @@
         <f>_xlfn.XLOOKUP(C116,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
+      <c r="H116" s="26"/>
+    </row>
+    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="4" t="s">
         <v>136</v>
       </c>
@@ -8390,12 +8608,13 @@
         <f>_xlfn.XLOOKUP(C117,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B118" s="12" t="s">
+      <c r="H117" s="26"/>
+    </row>
+    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -8417,10 +8636,13 @@
         <f>_xlfn.XLOOKUP(C118,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
+      <c r="H118" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="17"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="4" t="s">
         <v>117</v>
       </c>
@@ -8440,10 +8662,11 @@
         <f>_xlfn.XLOOKUP(C119,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
+      <c r="H119" s="26"/>
+    </row>
+    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="4" t="s">
         <v>118</v>
       </c>
@@ -8463,10 +8686,11 @@
         <f>_xlfn.XLOOKUP(C120,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12"/>
+      <c r="H120" s="26"/>
+    </row>
+    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="17"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="4" t="s">
         <v>119</v>
       </c>
@@ -8486,10 +8710,11 @@
         <f>_xlfn.XLOOKUP(C121,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
+      <c r="H121" s="26"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="4" t="s">
         <v>120</v>
       </c>
@@ -8509,10 +8734,11 @@
         <f>_xlfn.XLOOKUP(C122,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
+      <c r="H122" s="26"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="17"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="4" t="s">
         <v>121</v>
       </c>
@@ -8532,10 +8758,11 @@
         <f>_xlfn.XLOOKUP(C123,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="11"/>
-      <c r="B124" s="12"/>
+      <c r="H123" s="26"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="4" t="s">
         <v>122</v>
       </c>
@@ -8555,10 +8782,11 @@
         <f>_xlfn.XLOOKUP(C124,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
+      <c r="H124" s="26"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="4" t="s">
         <v>123</v>
       </c>
@@ -8578,10 +8806,11 @@
         <f>_xlfn.XLOOKUP(C125,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="11"/>
-      <c r="B126" s="12"/>
+      <c r="H125" s="26"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="17"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="4" t="s">
         <v>124</v>
       </c>
@@ -8601,10 +8830,11 @@
         <f>_xlfn.XLOOKUP(C126,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="11"/>
-      <c r="B127" s="12"/>
+      <c r="H126" s="26"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="17"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="4" t="s">
         <v>125</v>
       </c>
@@ -8624,11 +8854,12 @@
         <f>_xlfn.XLOOKUP(C127,[1]DataComp_2024_DataDictionary_2!B:B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.35">
+      <c r="H127" s="26"/>
+    </row>
+    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
     </row>
-    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
     </row>
   </sheetData>
@@ -8636,22 +8867,31 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G131">
     <sortCondition ref="C1:C131"/>
   </sortState>
-  <mergeCells count="29">
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A72:A88"/>
-    <mergeCell ref="A89:A95"/>
+  <mergeCells count="38">
+    <mergeCell ref="H72:H88"/>
+    <mergeCell ref="H118:H127"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="H58:H71"/>
+    <mergeCell ref="H6:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H41:H52"/>
+    <mergeCell ref="H97:H117"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A97:A117"/>
     <mergeCell ref="A118:A127"/>
     <mergeCell ref="B97:B117"/>
     <mergeCell ref="B118:B127"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="B47:B52"/>
@@ -8660,12 +8900,12 @@
     <mergeCell ref="B65:B71"/>
     <mergeCell ref="B72:B88"/>
     <mergeCell ref="B89:B95"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B40"/>
     <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A72:A88"/>
+    <mergeCell ref="A89:A95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8679,52 +8919,52 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="177.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="177.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8759,7 +8999,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8794,7 +9034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8829,7 +9069,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8864,7 +9104,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -8899,7 +9139,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -8934,7 +9174,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -8969,7 +9209,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -9004,7 +9244,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -9039,7 +9279,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -9074,7 +9314,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -9109,7 +9349,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -9144,7 +9384,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -9179,7 +9419,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -9214,7 +9454,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -9249,7 +9489,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -9284,7 +9524,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -9319,7 +9559,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -9354,7 +9594,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -9389,7 +9629,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -9424,7 +9664,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -9459,7 +9699,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -9494,7 +9734,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -9529,7 +9769,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -9564,7 +9804,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -9599,7 +9839,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -9634,7 +9874,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9669,7 +9909,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -9704,7 +9944,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -9739,7 +9979,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -9774,7 +10014,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -9809,7 +10049,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -9844,7 +10084,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -9879,7 +10119,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -9914,7 +10154,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -9949,7 +10189,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -9984,7 +10224,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -10019,7 +10259,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -10054,7 +10294,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -10089,7 +10329,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -10124,7 +10364,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -10159,7 +10399,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -10194,7 +10434,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -10229,7 +10469,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -10264,7 +10504,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -10299,7 +10539,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -10334,7 +10574,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -10369,7 +10609,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -10404,7 +10644,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -10439,7 +10679,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -10474,7 +10714,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -10509,7 +10749,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -10544,7 +10784,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -10579,7 +10819,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -10614,7 +10854,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -10649,7 +10889,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -10684,7 +10924,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -10719,7 +10959,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -10754,7 +10994,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -10789,7 +11029,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -10824,7 +11064,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -10859,7 +11099,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -10894,7 +11134,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -10929,7 +11169,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -10964,7 +11204,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -10999,7 +11239,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -11034,7 +11274,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -11069,7 +11309,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -11104,7 +11344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -11139,7 +11379,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -11174,7 +11414,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -11209,7 +11449,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -11244,7 +11484,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -11279,7 +11519,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -11314,7 +11554,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -11349,7 +11589,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -11384,7 +11624,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -11419,7 +11659,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -11454,7 +11694,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -11489,7 +11729,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -11524,7 +11764,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -11559,7 +11799,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -11594,7 +11834,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -11629,7 +11869,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -11664,7 +11904,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -11699,7 +11939,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -11734,7 +11974,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -11769,7 +12009,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -11804,7 +12044,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -11839,7 +12079,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -11874,7 +12114,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -11909,7 +12149,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -11944,7 +12184,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -11979,7 +12219,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -12014,7 +12254,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -12049,7 +12289,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -12084,7 +12324,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -12119,7 +12359,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -12154,7 +12394,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -12189,7 +12429,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -12224,7 +12464,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -12259,7 +12499,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -12294,7 +12534,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -12329,7 +12569,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -12364,7 +12604,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -12399,7 +12639,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -12434,7 +12674,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>27</v>
       </c>
@@ -12469,7 +12709,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -12504,7 +12744,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -12539,7 +12779,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -12574,7 +12814,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -12609,7 +12849,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -12644,7 +12884,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -12679,7 +12919,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -12714,7 +12954,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -12749,7 +12989,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -12784,7 +13024,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -12819,7 +13059,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -12854,7 +13094,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -12889,7 +13129,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -12924,7 +13164,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -12959,7 +13199,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -12994,7 +13234,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -13029,7 +13269,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -13064,7 +13304,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -13099,7 +13339,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -13140,21 +13380,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A5B099-F794-4335-B3F2-AC6E9F560AF0}">
-  <dimension ref="A1:I65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A5B099-F794-4335-B3F2-AC6E9F560AF0}">
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B9"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="133" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8"/>
-    <col min="2" max="2" width="32.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="2" max="2" width="32.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>361</v>
       </c>
@@ -13179,11 +13422,11 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
         <f>VLOOKUP(C2,Org1_!C2:D127,2,0)</f>
         <v>Demographic</v>
@@ -13192,7 +13435,7 @@
         <f>VLOOKUP(C2,Org1_!F1:G127,2,0)</f>
         <v>Organization</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -13210,8 +13453,9 @@
       <c r="H2" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -13219,7 +13463,7 @@
         <f>VLOOKUP(C3,Org1_!F2:G128,2,0)</f>
         <v>Department</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -13237,17 +13481,17 @@
       <c r="H3" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="str">
-        <f>VLOOKUP(C4,Org1_!C4:D129,2,0)</f>
-        <v>IV</v>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>VLOOKUP(C4,Org1_!F3:G129,2,0)</f>
         <v>Pre-Covid In Person Meetings</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -13265,17 +13509,15 @@
       <c r="H4" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="str">
-        <f>VLOOKUP(C5,Org1_!C5:D130,2,0)</f>
-        <v>IV</v>
-      </c>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="str">
         <f>VLOOKUP(C5,Org1_!F4:G130,2,0)</f>
         <v>Pre-Covid Hybrid Meetings</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -13293,17 +13535,15 @@
       <c r="H5" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="str">
-        <f>VLOOKUP(C6,Org1_!C6:D131,2,0)</f>
-        <v>IV</v>
-      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="str">
         <f>VLOOKUP(C6,Org1_!F5:G131,2,0)</f>
         <v>Pre-Covid Remote Meetings</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -13321,15 +13561,16 @@
       <c r="H6" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>381</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -13347,11 +13588,12 @@
       <c r="H7" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14" t="s">
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12" t="s">
         <v>384</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -13369,11 +13611,12 @@
       <c r="H8" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14" t="s">
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="12" t="s">
         <v>386</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -13391,15 +13634,16 @@
       <c r="H9" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>388</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -13417,17 +13661,18 @@
       <c r="H10" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="str">
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="str">
         <f>VLOOKUP(C11,Org1_!C11:D136,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" s="17" t="str">
         <f>VLOOKUP(C11,Org1_!F10:G136,2,0)</f>
         <v>Pre-Covid Time Spent in Office</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -13445,11 +13690,12 @@
       <c r="H11" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -13467,17 +13713,18 @@
       <c r="H12" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="str">
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="str">
         <f>VLOOKUP(C13,Org1_!C13:D138,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="B13" s="17" t="str">
         <f>VLOOKUP(C13,Org1_!F12:G138,2,0)</f>
         <v>Pre-Covid Time Spent Remote</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -13495,11 +13742,12 @@
       <c r="H13" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -13517,131 +13765,132 @@
       <c r="H14" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="str">
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="str">
         <f>VLOOKUP(C15,Org1_!C15:D140,2,0)</f>
         <v>n/a</v>
       </c>
-      <c r="B15" s="24" t="str">
+      <c r="B15" s="31" t="str">
         <f>VLOOKUP(C15,Org1_!F14:G140,2,0)</f>
         <v>Ignore - too detailed</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="14" t="s">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="14" t="s">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="14" t="s">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="14" t="s">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>173</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -13659,11 +13908,14 @@
       <c r="H20" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="I20" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="12" t="s">
         <v>174</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -13681,11 +13933,12 @@
       <c r="H21" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="12" t="s">
         <v>172</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -13703,11 +13956,12 @@
       <c r="H22" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -13725,15 +13979,16 @@
       <c r="H23" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>157</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -13751,15 +14006,16 @@
       <c r="H24" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>164</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -13777,11 +14033,12 @@
       <c r="H25" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14" t="s">
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="12" t="s">
         <v>409</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -13799,11 +14056,12 @@
       <c r="H26" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14" t="s">
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="12" t="s">
         <v>165</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -13821,11 +14079,12 @@
       <c r="H27" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14" t="s">
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="12" t="s">
         <v>168</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -13843,15 +14102,16 @@
       <c r="H28" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>404</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -13869,11 +14129,12 @@
       <c r="H29" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14" t="s">
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="12" t="s">
         <v>162</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -13891,11 +14152,12 @@
       <c r="H30" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -13913,16 +14175,17 @@
       <c r="H31" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="11" t="str">
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="17" t="str">
         <f>VLOOKUP(C32,Org1_!F31:G157,2,0)</f>
         <v>Work Location Deciding Factors</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -13940,11 +14203,14 @@
       <c r="H32" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
+      <c r="I32" s="25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -13962,11 +14228,12 @@
       <c r="H33" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14" t="s">
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -13984,11 +14251,12 @@
       <c r="H34" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="12" t="s">
         <v>394</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -14006,11 +14274,12 @@
       <c r="H35" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14" t="s">
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -14028,11 +14297,12 @@
       <c r="H36" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14" t="s">
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -14050,11 +14320,12 @@
       <c r="H37" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14" t="s">
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -14072,11 +14343,12 @@
       <c r="H38" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="12" t="s">
         <v>211</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -14094,11 +14366,12 @@
       <c r="H39" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14" t="s">
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -14116,11 +14389,12 @@
       <c r="H40" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14" t="s">
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -14138,17 +14412,18 @@
       <c r="H41" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="str">
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="str">
         <f>VLOOKUP(C42,Org1_!C42:D167,2,0)</f>
         <v>DV</v>
       </c>
-      <c r="B42" s="11" t="str">
+      <c r="B42" s="17" t="str">
         <f>VLOOKUP(C42,Org1_!F41:G167,2,0)</f>
         <v>Workplace Preference</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -14167,10 +14442,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14" t="s">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -14189,16 +14464,16 @@
         <v>331</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="str">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="str">
         <f>VLOOKUP(C44,Org1_!C44:D169,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B44" s="11" t="str">
+      <c r="B44" s="17" t="str">
         <f>VLOOKUP(C44,Org1_!F43:G169,2,0)</f>
         <v>Recommendations Questions</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -14216,11 +14491,14 @@
       <c r="H44" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14" t="s">
+      <c r="I44" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="12" t="s">
         <v>416</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -14238,11 +14516,12 @@
       <c r="H45" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14" t="s">
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -14260,11 +14539,12 @@
       <c r="H46" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14" t="s">
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -14282,11 +14562,12 @@
       <c r="H47" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="14" t="s">
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -14304,11 +14585,12 @@
       <c r="H48" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14" t="s">
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -14326,11 +14608,12 @@
       <c r="H49" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14" t="s">
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -14348,11 +14631,12 @@
       <c r="H50" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14" t="s">
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -14370,17 +14654,18 @@
       <c r="H51" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A52" s="11" t="str">
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="str">
         <f>VLOOKUP(C52,Org1_!C52:D177,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B52" s="11" t="str">
+      <c r="B52" s="17" t="str">
         <f>VLOOKUP(C52,Org1_!F51:G177,2,0)</f>
         <v>Office Satisfaction</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="12" t="s">
         <v>127</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -14398,11 +14683,14 @@
       <c r="H52" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14" t="s">
+      <c r="I52" s="25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="12" t="s">
         <v>128</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -14420,11 +14708,12 @@
       <c r="H53" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14" t="s">
+      <c r="I53" s="25"/>
+    </row>
+    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -14442,11 +14731,12 @@
       <c r="H54" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="14" t="s">
+      <c r="I54" s="25"/>
+    </row>
+    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -14464,11 +14754,12 @@
       <c r="H55" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14" t="s">
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -14486,11 +14777,12 @@
       <c r="H56" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="14" t="s">
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -14508,11 +14800,12 @@
       <c r="H57" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="14" t="s">
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -14530,17 +14823,21 @@
       <c r="H58" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A59" s="11" t="str">
+      <c r="I58" s="25"/>
+      <c r="L58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="str">
         <f>VLOOKUP(C59,Org1_!C59:D184,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B59" s="11" t="str">
+      <c r="B59" s="17" t="str">
         <f>VLOOKUP(C59,Org1_!F58:G184,2,0)</f>
         <v>Workplace Features Importance</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -14558,11 +14855,14 @@
       <c r="H59" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="14" t="s">
+      <c r="I59" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -14580,11 +14880,12 @@
       <c r="H60" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14" t="s">
+      <c r="I60" s="26"/>
+    </row>
+    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -14602,11 +14903,12 @@
       <c r="H61" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="14" t="s">
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -14624,11 +14926,12 @@
       <c r="H62" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="14" t="s">
+      <c r="I62" s="26"/>
+    </row>
+    <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="12" t="s">
         <v>120</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -14646,11 +14949,12 @@
       <c r="H63" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="14" t="s">
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -14668,11 +14972,12 @@
       <c r="H64" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="14" t="s">
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -14690,24 +14995,18 @@
       <c r="H65" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="I65" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I65" xr:uid="{E7A5B099-F794-4335-B3F2-AC6E9F560AF0}"/>
-  <mergeCells count="24">
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="A32:A41"/>
+  <mergeCells count="31">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="I44:I51"/>
+    <mergeCell ref="I59:I65"/>
+    <mergeCell ref="I20:I31"/>
+    <mergeCell ref="I32:I41"/>
+    <mergeCell ref="I52:I58"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B23"/>
@@ -14718,8 +15017,23 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A52:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14727,18 +15041,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB07D1D5-5A20-4506-8FD8-71CDC86E25D6}">
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView zoomScale="45" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.08984375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14767,7 +15081,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -14798,7 +15112,7 @@
         <v>factor (5)</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -14829,7 +15143,7 @@
         <v>logical</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -14860,7 +15174,7 @@
         <v>factor (17)</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -14890,8 +15204,11 @@
         <f>_xlfn.XLOOKUP($C5,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -14921,8 +15238,9 @@
         <f>_xlfn.XLOOKUP($C6,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -14952,12 +15270,13 @@
         <f>_xlfn.XLOOKUP($C7,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -14983,10 +15302,11 @@
         <f>_xlfn.XLOOKUP($C8,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8" t="s">
         <v>52</v>
       </c>
@@ -15010,8 +15330,9 @@
         <f>_xlfn.XLOOKUP($C9,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -15041,12 +15362,13 @@
         <f>_xlfn.XLOOKUP($C10,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="17" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -15072,10 +15394,11 @@
         <f>_xlfn.XLOOKUP($C11,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="8" t="s">
         <v>146</v>
       </c>
@@ -15099,10 +15422,11 @@
         <f>_xlfn.XLOOKUP($C12,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="8" t="s">
         <v>147</v>
       </c>
@@ -15126,10 +15450,11 @@
         <f>_xlfn.XLOOKUP($C13,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="8" t="s">
         <v>148</v>
       </c>
@@ -15153,10 +15478,11 @@
         <f>_xlfn.XLOOKUP($C14,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="8" t="s">
         <v>149</v>
       </c>
@@ -15180,10 +15506,11 @@
         <f>_xlfn.XLOOKUP($C15,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="8" t="s">
         <v>150</v>
       </c>
@@ -15207,12 +15534,13 @@
         <f>_xlfn.XLOOKUP($C16,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -15239,9 +15567,9 @@
         <v>factor (6)</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="8" t="s">
         <v>62</v>
       </c>
@@ -15266,11 +15594,11 @@
         <v>factor (6)</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>155</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -15296,10 +15624,13 @@
         <f>_xlfn.XLOOKUP($C19,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="I19" s="24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="8" t="s">
         <v>71</v>
       </c>
@@ -15323,10 +15654,11 @@
         <f>_xlfn.XLOOKUP($C20,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="8" t="s">
         <v>72</v>
       </c>
@@ -15350,10 +15682,11 @@
         <f>_xlfn.XLOOKUP($C21,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="8" t="s">
         <v>73</v>
       </c>
@@ -15377,10 +15710,11 @@
         <f>_xlfn.XLOOKUP($C22,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="8" t="s">
         <v>74</v>
       </c>
@@ -15404,10 +15738,11 @@
         <f>_xlfn.XLOOKUP($C23,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="8" t="s">
         <v>75</v>
       </c>
@@ -15431,10 +15766,11 @@
         <f>_xlfn.XLOOKUP($C24,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="8" t="s">
         <v>76</v>
       </c>
@@ -15458,10 +15794,11 @@
         <f>_xlfn.XLOOKUP($C25,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="8" t="s">
         <v>77</v>
       </c>
@@ -15485,10 +15822,11 @@
         <f>_xlfn.XLOOKUP($C26,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="8" t="s">
         <v>78</v>
       </c>
@@ -15512,10 +15850,11 @@
         <f>_xlfn.XLOOKUP($C27,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="8" t="s">
         <v>79</v>
       </c>
@@ -15539,10 +15878,11 @@
         <f>_xlfn.XLOOKUP($C28,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="8" t="s">
         <v>80</v>
       </c>
@@ -15566,10 +15906,11 @@
         <f>_xlfn.XLOOKUP($C29,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="8" t="s">
         <v>81</v>
       </c>
@@ -15593,12 +15934,13 @@
         <f>_xlfn.XLOOKUP($C30,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -15624,10 +15966,11 @@
         <f>_xlfn.XLOOKUP($C31,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="8" t="s">
         <v>38</v>
       </c>
@@ -15651,10 +15994,11 @@
         <f>_xlfn.XLOOKUP($C32,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="8" t="s">
         <v>39</v>
       </c>
@@ -15678,10 +16022,11 @@
         <f>_xlfn.XLOOKUP($C33,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="8" t="s">
         <v>40</v>
       </c>
@@ -15705,10 +16050,11 @@
         <f>_xlfn.XLOOKUP($C34,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="8" t="s">
         <v>41</v>
       </c>
@@ -15732,10 +16078,11 @@
         <f>_xlfn.XLOOKUP($C35,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="8" t="s">
         <v>42</v>
       </c>
@@ -15759,8 +16106,9 @@
         <f>_xlfn.XLOOKUP($C36,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>integer</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>27</v>
       </c>
@@ -15790,12 +16138,13 @@
         <f>_xlfn.XLOOKUP($C37,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -15821,10 +16170,11 @@
         <f>_xlfn.XLOOKUP($C38,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="8" t="s">
         <v>160</v>
       </c>
@@ -15848,10 +16198,11 @@
         <f>_xlfn.XLOOKUP($C39,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="8" t="s">
         <v>161</v>
       </c>
@@ -15875,10 +16226,11 @@
         <f>_xlfn.XLOOKUP($C40,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="8" t="s">
         <v>162</v>
       </c>
@@ -15902,12 +16254,13 @@
         <f>_xlfn.XLOOKUP($C41,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>163</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -15933,10 +16286,11 @@
         <f>_xlfn.XLOOKUP($C42,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="8" t="s">
         <v>165</v>
       </c>
@@ -15960,10 +16314,11 @@
         <f>_xlfn.XLOOKUP($C43,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="8" t="s">
         <v>166</v>
       </c>
@@ -15987,10 +16342,11 @@
         <f>_xlfn.XLOOKUP($C44,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="8" t="s">
         <v>167</v>
       </c>
@@ -16014,10 +16370,11 @@
         <f>_xlfn.XLOOKUP($C45,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="8" t="s">
         <v>168</v>
       </c>
@@ -16041,12 +16398,13 @@
         <f>_xlfn.XLOOKUP($C46,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>169</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -16072,10 +16430,11 @@
         <f>_xlfn.XLOOKUP($C47,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="8" t="s">
         <v>171</v>
       </c>
@@ -16099,10 +16458,11 @@
         <f>_xlfn.XLOOKUP($C48,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="8" t="s">
         <v>172</v>
       </c>
@@ -16126,10 +16486,11 @@
         <f>_xlfn.XLOOKUP($C49,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="8" t="s">
         <v>173</v>
       </c>
@@ -16153,10 +16514,11 @@
         <f>_xlfn.XLOOKUP($C50,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="8" t="s">
         <v>174</v>
       </c>
@@ -16180,12 +16542,13 @@
         <f>_xlfn.XLOOKUP($C51,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>175</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -16211,10 +16574,11 @@
         <f>_xlfn.XLOOKUP($C52,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="8" t="s">
         <v>44</v>
       </c>
@@ -16238,10 +16602,11 @@
         <f>_xlfn.XLOOKUP($C53,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="8" t="s">
         <v>45</v>
       </c>
@@ -16265,10 +16630,11 @@
         <f>_xlfn.XLOOKUP($C54,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+      <c r="I54" s="24"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="8" t="s">
         <v>46</v>
       </c>
@@ -16292,10 +16658,11 @@
         <f>_xlfn.XLOOKUP($C55,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="8" t="s">
         <v>47</v>
       </c>
@@ -16319,10 +16686,11 @@
         <f>_xlfn.XLOOKUP($C56,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="I56" s="24"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="8" t="s">
         <v>48</v>
       </c>
@@ -16346,10 +16714,11 @@
         <f>_xlfn.XLOOKUP($C57,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="8" t="s">
         <v>49</v>
       </c>
@@ -16373,12 +16742,13 @@
         <f>_xlfn.XLOOKUP($C58,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="11" t="s">
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>176</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -16404,10 +16774,11 @@
         <f>_xlfn.XLOOKUP($C59,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
+      <c r="I59" s="24"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="8" t="s">
         <v>29</v>
       </c>
@@ -16431,10 +16802,11 @@
         <f>_xlfn.XLOOKUP($C60,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="I60" s="24"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="8" t="s">
         <v>30</v>
       </c>
@@ -16458,10 +16830,11 @@
         <f>_xlfn.XLOOKUP($C61,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="8" t="s">
         <v>31</v>
       </c>
@@ -16485,10 +16858,11 @@
         <f>_xlfn.XLOOKUP($C62,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="I62" s="24"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="8" t="s">
         <v>32</v>
       </c>
@@ -16512,10 +16886,11 @@
         <f>_xlfn.XLOOKUP($C63,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+      <c r="I63" s="24"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="8" t="s">
         <v>33</v>
       </c>
@@ -16539,10 +16914,11 @@
         <f>_xlfn.XLOOKUP($C64,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="8" t="s">
         <v>34</v>
       </c>
@@ -16566,12 +16942,13 @@
         <f>_xlfn.XLOOKUP($C65,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="12" t="s">
+      <c r="I65" s="24"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -16597,10 +16974,13 @@
         <f>_xlfn.XLOOKUP($C66,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
+      <c r="I66" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="8" t="s">
         <v>95</v>
       </c>
@@ -16624,10 +17004,11 @@
         <f>_xlfn.XLOOKUP($C67,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="8" t="s">
         <v>96</v>
       </c>
@@ -16651,10 +17032,11 @@
         <f>_xlfn.XLOOKUP($C68,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="8" t="s">
         <v>97</v>
       </c>
@@ -16678,10 +17060,11 @@
         <f>_xlfn.XLOOKUP($C69,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="8" t="s">
         <v>98</v>
       </c>
@@ -16705,10 +17088,11 @@
         <f>_xlfn.XLOOKUP($C70,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="8" t="s">
         <v>99</v>
       </c>
@@ -16732,10 +17116,11 @@
         <f>_xlfn.XLOOKUP($C71,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="8" t="s">
         <v>100</v>
       </c>
@@ -16759,10 +17144,11 @@
         <f>_xlfn.XLOOKUP($C72,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="8" t="s">
         <v>101</v>
       </c>
@@ -16786,10 +17172,11 @@
         <f>_xlfn.XLOOKUP($C73,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="8" t="s">
         <v>103</v>
       </c>
@@ -16813,10 +17200,11 @@
         <f>_xlfn.XLOOKUP($C74,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="8" t="s">
         <v>104</v>
       </c>
@@ -16840,10 +17228,11 @@
         <f>_xlfn.XLOOKUP($C75,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="8" t="s">
         <v>105</v>
       </c>
@@ -16867,10 +17256,11 @@
         <f>_xlfn.XLOOKUP($C76,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
+      <c r="I76" s="26"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="8" t="s">
         <v>106</v>
       </c>
@@ -16894,10 +17284,11 @@
         <f>_xlfn.XLOOKUP($C77,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="8" t="s">
         <v>107</v>
       </c>
@@ -16921,10 +17312,11 @@
         <f>_xlfn.XLOOKUP($C78,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
+      <c r="I78" s="26"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="8" t="s">
         <v>108</v>
       </c>
@@ -16948,10 +17340,11 @@
         <f>_xlfn.XLOOKUP($C79,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="8" t="s">
         <v>109</v>
       </c>
@@ -16975,10 +17368,11 @@
         <f>_xlfn.XLOOKUP($C80,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
+      <c r="I80" s="26"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="8" t="s">
         <v>110</v>
       </c>
@@ -17002,12 +17396,13 @@
         <f>_xlfn.XLOOKUP($C81,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" s="12" t="s">
+      <c r="I81" s="26"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>178</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -17033,10 +17428,11 @@
         <f>_xlfn.XLOOKUP($C82,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
+      <c r="I82" s="26"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="8" t="s">
         <v>179</v>
       </c>
@@ -17060,10 +17456,11 @@
         <f>_xlfn.XLOOKUP($C83,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
+      <c r="I83" s="26"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="8" t="s">
         <v>112</v>
       </c>
@@ -17087,10 +17484,11 @@
         <f>_xlfn.XLOOKUP($C84,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
+      <c r="I84" s="26"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="17"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="8" t="s">
         <v>113</v>
       </c>
@@ -17114,10 +17512,11 @@
         <f>_xlfn.XLOOKUP($C85,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="17"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="8" t="s">
         <v>114</v>
       </c>
@@ -17141,10 +17540,11 @@
         <f>_xlfn.XLOOKUP($C86,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
+      <c r="I86" s="26"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="8" t="s">
         <v>115</v>
       </c>
@@ -17168,10 +17568,11 @@
         <f>_xlfn.XLOOKUP($C87,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
+      <c r="I87" s="26"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="8" t="s">
         <v>180</v>
       </c>
@@ -17195,12 +17596,13 @@
         <f>_xlfn.XLOOKUP($C88,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="12" t="s">
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -17226,10 +17628,11 @@
         <f>_xlfn.XLOOKUP($C89,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
+      <c r="I89" s="26"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="8" t="s">
         <v>181</v>
       </c>
@@ -17253,10 +17656,11 @@
         <f>_xlfn.XLOOKUP($C90,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
+      <c r="I90" s="26"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="8" t="s">
         <v>117</v>
       </c>
@@ -17280,10 +17684,11 @@
         <f>_xlfn.XLOOKUP($C91,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
+      <c r="I91" s="26"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="8" t="s">
         <v>118</v>
       </c>
@@ -17307,10 +17712,11 @@
         <f>_xlfn.XLOOKUP($C92,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="8" t="s">
         <v>119</v>
       </c>
@@ -17334,10 +17740,11 @@
         <f>_xlfn.XLOOKUP($C93,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="8" t="s">
         <v>120</v>
       </c>
@@ -17361,10 +17768,11 @@
         <f>_xlfn.XLOOKUP($C94,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
+      <c r="I94" s="26"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="8" t="s">
         <v>121</v>
       </c>
@@ -17388,10 +17796,11 @@
         <f>_xlfn.XLOOKUP($C95,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
+      <c r="I95" s="26"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="8" t="s">
         <v>122</v>
       </c>
@@ -17415,10 +17824,11 @@
         <f>_xlfn.XLOOKUP($C96,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
+      <c r="I96" s="26"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="17"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="8" t="s">
         <v>123</v>
       </c>
@@ -17442,10 +17852,11 @@
         <f>_xlfn.XLOOKUP($C97,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
+      <c r="I97" s="26"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="8" t="s">
         <v>124</v>
       </c>
@@ -17469,10 +17880,11 @@
         <f>_xlfn.XLOOKUP($C98,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
+      <c r="I98" s="26"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="8" t="s">
         <v>125</v>
       </c>
@@ -17496,8 +17908,9 @@
         <f>_xlfn.XLOOKUP($C99,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I99" s="26"/>
+    </row>
+    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -17528,11 +17941,11 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B101" s="11" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="17" t="s">
         <v>183</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -17558,10 +17971,13 @@
         <f>_xlfn.XLOOKUP($C101,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
+      <c r="I101" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="8" t="s">
         <v>184</v>
       </c>
@@ -17585,10 +18001,11 @@
         <f>_xlfn.XLOOKUP($C102,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
+      <c r="I102" s="26"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="8" t="s">
         <v>89</v>
       </c>
@@ -17612,10 +18029,11 @@
         <f>_xlfn.XLOOKUP($C103,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
+      <c r="I103" s="26"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="8" t="s">
         <v>90</v>
       </c>
@@ -17639,10 +18057,11 @@
         <f>_xlfn.XLOOKUP($C104,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
+      <c r="I104" s="26"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="8" t="s">
         <v>91</v>
       </c>
@@ -17666,10 +18085,11 @@
         <f>_xlfn.XLOOKUP($C105,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
+      <c r="I105" s="26"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="8" t="s">
         <v>92</v>
       </c>
@@ -17693,10 +18113,11 @@
         <f>_xlfn.XLOOKUP($C106,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
+      <c r="I106" s="26"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="8" t="s">
         <v>185</v>
       </c>
@@ -17720,12 +18141,13 @@
         <f>_xlfn.XLOOKUP($C107,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108" s="11" t="s">
+      <c r="I107" s="26"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="17" t="s">
         <v>186</v>
       </c>
       <c r="C108" s="8" t="s">
@@ -17751,10 +18173,11 @@
         <f>_xlfn.XLOOKUP($C108,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
+      <c r="I108" s="26"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="8" t="s">
         <v>188</v>
       </c>
@@ -17778,10 +18201,11 @@
         <f>_xlfn.XLOOKUP($C109,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
+      <c r="I109" s="26"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="8" t="s">
         <v>189</v>
       </c>
@@ -17805,10 +18229,11 @@
         <f>_xlfn.XLOOKUP($C110,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
+      <c r="I110" s="26"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="8" t="s">
         <v>190</v>
       </c>
@@ -17832,10 +18257,11 @@
         <f>_xlfn.XLOOKUP($C111,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
+      <c r="I111" s="26"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="8" t="s">
         <v>191</v>
       </c>
@@ -17859,10 +18285,11 @@
         <f>_xlfn.XLOOKUP($C112,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
+      <c r="I112" s="26"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="8" t="s">
         <v>192</v>
       </c>
@@ -17886,10 +18313,11 @@
         <f>_xlfn.XLOOKUP($C113,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
+      <c r="I113" s="26"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="8" t="s">
         <v>193</v>
       </c>
@@ -17913,10 +18341,11 @@
         <f>_xlfn.XLOOKUP($C114,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
+      <c r="I114" s="26"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="8" t="s">
         <v>194</v>
       </c>
@@ -17940,10 +18369,11 @@
         <f>_xlfn.XLOOKUP($C115,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
+      <c r="I115" s="26"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="8" t="s">
         <v>195</v>
       </c>
@@ -17967,10 +18397,11 @@
         <f>_xlfn.XLOOKUP($C116,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
+      <c r="I116" s="26"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="8" t="s">
         <v>196</v>
       </c>
@@ -17994,10 +18425,11 @@
         <f>_xlfn.XLOOKUP($C117,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
+      <c r="I117" s="26"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="8" t="s">
         <v>197</v>
       </c>
@@ -18021,10 +18453,11 @@
         <f>_xlfn.XLOOKUP($C118,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
+      <c r="I118" s="26"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="8" t="s">
         <v>198</v>
       </c>
@@ -18048,10 +18481,11 @@
         <f>_xlfn.XLOOKUP($C119,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
+      <c r="I119" s="26"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="8" t="s">
         <v>199</v>
       </c>
@@ -18075,12 +18509,13 @@
         <f>_xlfn.XLOOKUP($C120,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" s="11" t="s">
+      <c r="I120" s="26"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="17" t="s">
         <v>183</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -18106,10 +18541,11 @@
         <f>_xlfn.XLOOKUP($C121,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
+      <c r="I121" s="26"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="8" t="s">
         <v>200</v>
       </c>
@@ -18133,10 +18569,11 @@
         <f>_xlfn.XLOOKUP($C122,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
+      <c r="I122" s="26"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="8" t="s">
         <v>128</v>
       </c>
@@ -18160,10 +18597,11 @@
         <f>_xlfn.XLOOKUP($C123,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
+      <c r="I123" s="26"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="8" t="s">
         <v>129</v>
       </c>
@@ -18187,10 +18625,11 @@
         <f>_xlfn.XLOOKUP($C124,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
+      <c r="I124" s="26"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="17"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="8" t="s">
         <v>130</v>
       </c>
@@ -18214,10 +18653,11 @@
         <f>_xlfn.XLOOKUP($C125,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
+      <c r="I125" s="26"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="8" t="s">
         <v>131</v>
       </c>
@@ -18241,10 +18681,11 @@
         <f>_xlfn.XLOOKUP($C126,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
+      <c r="I126" s="26"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="17"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="8" t="s">
         <v>132</v>
       </c>
@@ -18268,10 +18709,11 @@
         <f>_xlfn.XLOOKUP($C127,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
+      <c r="I127" s="26"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="17"/>
+      <c r="B128" s="17"/>
       <c r="C128" s="8" t="s">
         <v>133</v>
       </c>
@@ -18295,10 +18737,11 @@
         <f>_xlfn.XLOOKUP($C128,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
+      <c r="I128" s="26"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="17"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="8" t="s">
         <v>134</v>
       </c>
@@ -18322,10 +18765,11 @@
         <f>_xlfn.XLOOKUP($C129,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
+      <c r="I129" s="26"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="17"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="8" t="s">
         <v>135</v>
       </c>
@@ -18349,10 +18793,11 @@
         <f>_xlfn.XLOOKUP($C130,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
+      <c r="I130" s="26"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="17"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="8" t="s">
         <v>136</v>
       </c>
@@ -18376,10 +18821,11 @@
         <f>_xlfn.XLOOKUP($C131,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
+      <c r="I131" s="26"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="17"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="8" t="s">
         <v>137</v>
       </c>
@@ -18403,10 +18849,11 @@
         <f>_xlfn.XLOOKUP($C132,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
+      <c r="I132" s="26"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="17"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="8" t="s">
         <v>138</v>
       </c>
@@ -18430,10 +18877,11 @@
         <f>_xlfn.XLOOKUP($C133,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
+      <c r="I133" s="26"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="17"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="8" t="s">
         <v>139</v>
       </c>
@@ -18457,10 +18905,11 @@
         <f>_xlfn.XLOOKUP($C134,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
+      <c r="I134" s="26"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="17"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="8" t="s">
         <v>140</v>
       </c>
@@ -18484,10 +18933,11 @@
         <f>_xlfn.XLOOKUP($C135,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
+      <c r="I135" s="26"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="17"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="8" t="s">
         <v>141</v>
       </c>
@@ -18511,10 +18961,11 @@
         <f>_xlfn.XLOOKUP($C136,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
+      <c r="I136" s="26"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="17"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="8" t="s">
         <v>142</v>
       </c>
@@ -18538,12 +18989,13 @@
         <f>_xlfn.XLOOKUP($C137,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" s="11" t="s">
+      <c r="I137" s="26"/>
+    </row>
+    <row r="138" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A138" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -18569,10 +19021,13 @@
         <f>_xlfn.XLOOKUP($C138,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
+      <c r="I138" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A139" s="17"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="8" t="s">
         <v>203</v>
       </c>
@@ -18596,10 +19051,11 @@
         <f>_xlfn.XLOOKUP($C139,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
+      <c r="I139" s="26"/>
+    </row>
+    <row r="140" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="17"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="8" t="s">
         <v>204</v>
       </c>
@@ -18623,10 +19079,11 @@
         <f>_xlfn.XLOOKUP($C140,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
+      <c r="I140" s="26"/>
+    </row>
+    <row r="141" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="8" t="s">
         <v>205</v>
       </c>
@@ -18650,10 +19107,11 @@
         <f>_xlfn.XLOOKUP($C141,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
+      <c r="I141" s="26"/>
+    </row>
+    <row r="142" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="17"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="8" t="s">
         <v>206</v>
       </c>
@@ -18677,10 +19135,11 @@
         <f>_xlfn.XLOOKUP($C142,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
+      <c r="I142" s="26"/>
+    </row>
+    <row r="143" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A143" s="17"/>
+      <c r="B143" s="17"/>
       <c r="C143" s="8" t="s">
         <v>207</v>
       </c>
@@ -18704,10 +19163,11 @@
         <f>_xlfn.XLOOKUP($C143,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
+      <c r="I143" s="26"/>
+    </row>
+    <row r="144" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
       <c r="C144" s="8" t="s">
         <v>208</v>
       </c>
@@ -18731,10 +19191,11 @@
         <f>_xlfn.XLOOKUP($C144,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
+      <c r="I144" s="26"/>
+    </row>
+    <row r="145" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A145" s="17"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="8" t="s">
         <v>209</v>
       </c>
@@ -18758,8 +19219,9 @@
         <f>_xlfn.XLOOKUP($C145,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (5)</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I145" s="26"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>16</v>
       </c>
@@ -18789,12 +19251,15 @@
         <f>_xlfn.XLOOKUP($C146,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B147" s="11" t="s">
+      <c r="I146" s="24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="17" t="s">
         <v>210</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -18820,10 +19285,11 @@
         <f>_xlfn.XLOOKUP($C147,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
+      <c r="I147" s="24"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="17"/>
+      <c r="B148" s="17"/>
       <c r="C148" s="8" t="s">
         <v>83</v>
       </c>
@@ -18847,10 +19313,11 @@
         <f>_xlfn.XLOOKUP($C148,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
+      <c r="I148" s="24"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="17"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="8" t="s">
         <v>84</v>
       </c>
@@ -18874,10 +19341,11 @@
         <f>_xlfn.XLOOKUP($C149,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
+      <c r="I149" s="24"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="17"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="8" t="s">
         <v>85</v>
       </c>
@@ -18901,10 +19369,11 @@
         <f>_xlfn.XLOOKUP($C150,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
+      <c r="I150" s="24"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="17"/>
+      <c r="B151" s="17"/>
       <c r="C151" s="8" t="s">
         <v>86</v>
       </c>
@@ -18928,10 +19397,11 @@
         <f>_xlfn.XLOOKUP($C151,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
+      <c r="I151" s="24"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="17"/>
+      <c r="B152" s="17"/>
       <c r="C152" s="8" t="s">
         <v>211</v>
       </c>
@@ -18955,10 +19425,11 @@
         <f>_xlfn.XLOOKUP($C152,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
+      <c r="I152" s="24"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
       <c r="C153" s="8" t="s">
         <v>87</v>
       </c>
@@ -18982,10 +19453,11 @@
         <f>_xlfn.XLOOKUP($C153,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
+      <c r="I153" s="24"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="17"/>
+      <c r="B154" s="17"/>
       <c r="C154" s="8" t="s">
         <v>212</v>
       </c>
@@ -19009,10 +19481,11 @@
         <f>_xlfn.XLOOKUP($C154,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
+      <c r="I154" s="24"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="17"/>
+      <c r="B155" s="17"/>
       <c r="C155" s="8" t="s">
         <v>213</v>
       </c>
@@ -19036,8 +19509,9 @@
         <f>_xlfn.XLOOKUP($C155,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I155" s="24"/>
+    </row>
+    <row r="156" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>143</v>
       </c>
@@ -19067,8 +19541,9 @@
         <f>_xlfn.XLOOKUP($C156,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I156" s="24"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>27</v>
       </c>
@@ -19098,12 +19573,13 @@
         <f>_xlfn.XLOOKUP($C157,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>numeric</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="11" t="s">
+      <c r="I157" s="24"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C158" s="8" t="s">
@@ -19129,10 +19605,13 @@
         <f>_xlfn.XLOOKUP($C158,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (13)</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
+      <c r="I158" s="24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="17"/>
+      <c r="B159" s="17"/>
       <c r="C159" s="8" t="s">
         <v>20</v>
       </c>
@@ -19156,10 +19635,11 @@
         <f>_xlfn.XLOOKUP($C159,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (13)</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
+      <c r="I159" s="24"/>
+    </row>
+    <row r="160" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="17"/>
+      <c r="B160" s="17"/>
       <c r="C160" s="8" t="s">
         <v>21</v>
       </c>
@@ -19183,10 +19663,11 @@
         <f>_xlfn.XLOOKUP($C160,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (13)</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
+      <c r="I160" s="24"/>
+    </row>
+    <row r="161" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="17"/>
+      <c r="B161" s="17"/>
       <c r="C161" s="8" t="s">
         <v>22</v>
       </c>
@@ -19210,10 +19691,11 @@
         <f>_xlfn.XLOOKUP($C161,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (13)</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
+      <c r="I161" s="24"/>
+    </row>
+    <row r="162" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17"/>
       <c r="C162" s="8" t="s">
         <v>23</v>
       </c>
@@ -19237,10 +19719,11 @@
         <f>_xlfn.XLOOKUP($C162,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (13)</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
+      <c r="I162" s="24"/>
+    </row>
+    <row r="163" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="17"/>
+      <c r="B163" s="17"/>
       <c r="C163" s="8" t="s">
         <v>24</v>
       </c>
@@ -19264,10 +19747,11 @@
         <f>_xlfn.XLOOKUP($C163,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (13)</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
+      <c r="I163" s="24"/>
+    </row>
+    <row r="164" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="17"/>
+      <c r="B164" s="17"/>
       <c r="C164" s="8" t="s">
         <v>25</v>
       </c>
@@ -19291,8 +19775,9 @@
         <f>_xlfn.XLOOKUP($C164,[1]DataComp_2024_DataDictionary_2!$B:$B,[1]DataComp_2024_DataDictionary_2!G:G)</f>
         <v>factor (13)</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I164" s="24"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>151</v>
       </c>
@@ -19301,7 +19786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>152</v>
       </c>
@@ -19312,37 +19797,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I164" xr:uid="{EB07D1D5-5A20-4506-8FD8-71CDC86E25D6}"/>
-  <mergeCells count="38">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A30"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="B66:B81"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="A108:A120"/>
-    <mergeCell ref="B108:B120"/>
+  <mergeCells count="45">
+    <mergeCell ref="I146:I157"/>
+    <mergeCell ref="I158:I164"/>
+    <mergeCell ref="I66:I99"/>
+    <mergeCell ref="I5:I16"/>
+    <mergeCell ref="I19:I65"/>
+    <mergeCell ref="I101:I137"/>
+    <mergeCell ref="I138:I145"/>
     <mergeCell ref="A158:A164"/>
     <mergeCell ref="B158:B164"/>
     <mergeCell ref="A121:A137"/>
@@ -19351,6 +19813,36 @@
     <mergeCell ref="B138:B145"/>
     <mergeCell ref="A147:A155"/>
     <mergeCell ref="B147:B155"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="A108:A120"/>
+    <mergeCell ref="B108:B120"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A66:A81"/>
+    <mergeCell ref="B66:B81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -19362,23 +19854,24 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B16"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="26"/>
-    <col min="2" max="2" width="37.90625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.36328125" customWidth="1"/>
-    <col min="6" max="6" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" customWidth="1"/>
+    <col min="6" max="6" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -19403,16 +19896,16 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="str">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="str">
         <f>VLOOKUP(C2,Org1_!C2:D127,2,0)</f>
         <v>Demographic</v>
       </c>
-      <c r="B2" s="19" t="str">
+      <c r="B2" s="14" t="str">
         <f>VLOOKUP(C2,Org1_!F1:G127,2,0)</f>
         <v>Organization</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -19431,15 +19924,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19" t="str">
+      <c r="B3" s="14" t="str">
         <f>VLOOKUP(C3,Org1_!F2:G128,2,0)</f>
         <v>Department</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -19458,16 +19951,16 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="str">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="str">
         <f>VLOOKUP(C4,Org1_!C4:D129,2,0)</f>
         <v>Demographic</v>
       </c>
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="14" t="str">
         <f>VLOOKUP(C4,Org1_!F3:G129,2,0)</f>
         <v>Pre-Covid Tenure</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -19486,14 +19979,14 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>375</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -19511,15 +20004,18 @@
       <c r="H5" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="I5" s="28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>379</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -19537,15 +20033,16 @@
       <c r="H6" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -19563,11 +20060,12 @@
       <c r="H7" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -19585,11 +20083,12 @@
       <c r="H8" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -19607,17 +20106,18 @@
       <c r="H9" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="str">
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="str">
         <f>VLOOKUP(C10,Org1_!C10:D135,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="14" t="str">
         <f>VLOOKUP(C10,Org1_!F9:G135,2,0)</f>
         <v>Pre-Covid In Person Meetings</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -19635,17 +20135,18 @@
       <c r="H10" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="str">
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="str">
         <f>VLOOKUP(C11,Org1_!C11:D136,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="14" t="str">
         <f>VLOOKUP(C11,Org1_!F10:G136,2,0)</f>
         <v>Pre-Covid Hybrid Meetings</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -19663,17 +20164,18 @@
       <c r="H11" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="str">
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="str">
         <f>VLOOKUP(C12,Org1_!C12:D137,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="14" t="str">
         <f>VLOOKUP(C12,Org1_!F11:G137,2,0)</f>
         <v>Pre-Covid Remote Meetings</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -19691,15 +20193,16 @@
       <c r="H12" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>381</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -19717,11 +20220,12 @@
       <c r="H13" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>384</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -19739,11 +20243,12 @@
       <c r="H14" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>386</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -19761,11 +20266,12 @@
       <c r="H15" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>388</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -19783,17 +20289,18 @@
       <c r="H16" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="str">
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="str">
         <f>VLOOKUP(C17,Org1_!C17:D142,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B17" s="20" t="str">
+      <c r="B17" s="21" t="str">
         <f>VLOOKUP(C17,Org1_!F16:G142,2,0)</f>
         <v>Pre-Covid Time Spent in Office</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -19811,11 +20318,12 @@
       <c r="H17" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="14" t="s">
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -19833,11 +20341,12 @@
       <c r="H18" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="14" t="s">
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -19855,17 +20364,18 @@
       <c r="H19" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="str">
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="str">
         <f>VLOOKUP(C20,Org1_!C20:D145,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B20" s="20" t="str">
+      <c r="B20" s="21" t="str">
         <f>VLOOKUP(C20,Org1_!F19:G145,2,0)</f>
         <v>Pre-Covid Time Spent Remote</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -19883,11 +20393,12 @@
       <c r="H20" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="14" t="s">
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -19905,11 +20416,12 @@
       <c r="H21" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="14" t="s">
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -19927,17 +20439,18 @@
       <c r="H22" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="str">
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="str">
         <f>VLOOKUP(C23,Org1_!C23:D148,2,0)</f>
         <v>n/a</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="23" t="str">
         <f>VLOOKUP(C23,Org1_!F22:G148,2,0)</f>
         <v>Ignore - too detailed</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -19955,11 +20468,12 @@
       <c r="H23" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="14" t="s">
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -19977,11 +20491,12 @@
       <c r="H24" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="14" t="s">
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="12" t="s">
         <v>147</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -19999,11 +20514,12 @@
       <c r="H25" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="14" t="s">
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -20021,11 +20537,12 @@
       <c r="H26" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="14" t="s">
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="12" t="s">
         <v>150</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -20043,33 +20560,35 @@
       <c r="H27" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="16" t="s">
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="14" t="s">
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -20087,17 +20606,18 @@
       <c r="H29" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="str">
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="str">
         <f>VLOOKUP(C30,Org1_!C30:D155,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B30" s="20" t="str">
+      <c r="B30" s="21" t="str">
         <f>VLOOKUP(C30,Org1_!F29:G155,2,0)</f>
         <v>Work Location Deciding Factors</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -20115,11 +20635,12 @@
       <c r="H30" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="14" t="s">
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -20137,11 +20658,12 @@
       <c r="H31" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="14" t="s">
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="12" t="s">
         <v>394</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -20159,11 +20681,12 @@
       <c r="H32" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="14" t="s">
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -20181,11 +20704,12 @@
       <c r="H33" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="14" t="s">
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -20203,17 +20727,18 @@
       <c r="H34" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="str">
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="str">
         <f>VLOOKUP(C35,Org1_!C35:D160,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B35" s="20" t="str">
+      <c r="B35" s="21" t="str">
         <f>VLOOKUP(C35,Org1_!F34:G160,2,0)</f>
         <v>Focused Work Environmental Preferences</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -20231,11 +20756,12 @@
       <c r="H35" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="14" t="s">
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -20253,11 +20779,12 @@
       <c r="H36" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="14" t="s">
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -20275,11 +20802,12 @@
       <c r="H37" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="14" t="s">
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -20297,11 +20825,12 @@
       <c r="H38" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="14" t="s">
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -20319,11 +20848,12 @@
       <c r="H39" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="14" t="s">
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -20341,11 +20871,12 @@
       <c r="H40" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="14" t="s">
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -20363,17 +20894,18 @@
       <c r="H41" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A42" s="20" t="str">
+      <c r="I41" s="28"/>
+    </row>
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="str">
         <f>VLOOKUP(C42,Org1_!C42:D167,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B42" s="20" t="str">
+      <c r="B42" s="21" t="str">
         <f>VLOOKUP(C42,Org1_!F41:G167,2,0)</f>
         <v>Collaborative Work Enivornmental Preferences</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -20391,11 +20923,12 @@
       <c r="H42" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="14" t="s">
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -20413,11 +20946,12 @@
       <c r="H43" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="14" t="s">
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -20435,11 +20969,12 @@
       <c r="H44" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="14" t="s">
+      <c r="I44" s="28"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -20457,11 +20992,12 @@
       <c r="H45" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="14" t="s">
+      <c r="I45" s="28"/>
+    </row>
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -20479,11 +21015,12 @@
       <c r="H46" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="14" t="s">
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -20501,11 +21038,12 @@
       <c r="H47" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="14" t="s">
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -20523,17 +21061,18 @@
       <c r="H48" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="str">
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="str">
         <f>VLOOKUP(C49,Org1_!C49:D174,2,0)</f>
         <v>DV</v>
       </c>
-      <c r="B49" s="20" t="str">
+      <c r="B49" s="21" t="str">
         <f>VLOOKUP(C49,Org1_!F48:G174,2,0)</f>
         <v>Workplace Preference</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -20551,11 +21090,14 @@
       <c r="H49" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="14" t="s">
+      <c r="I49" s="24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -20573,11 +21115,12 @@
       <c r="H50" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="14" t="s">
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -20595,11 +21138,12 @@
       <c r="H51" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="14" t="s">
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -20617,11 +21161,12 @@
       <c r="H52" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="14" t="s">
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -20639,11 +21184,12 @@
       <c r="H53" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="14" t="s">
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -20661,11 +21207,12 @@
       <c r="H54" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="14" t="s">
+      <c r="I54" s="24"/>
+    </row>
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -20683,15 +21230,16 @@
       <c r="H55" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A56" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="20" t="s">
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -20709,11 +21257,14 @@
       <c r="H56" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="14" t="s">
+      <c r="I56" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -20731,11 +21282,12 @@
       <c r="H57" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="14" t="s">
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="12" t="s">
         <v>94</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -20753,11 +21305,12 @@
       <c r="H58" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="14" t="s">
+      <c r="I58" s="26"/>
+    </row>
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -20775,11 +21328,12 @@
       <c r="H59" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="14" t="s">
+      <c r="I59" s="26"/>
+    </row>
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="12" t="s">
         <v>97</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -20797,11 +21351,12 @@
       <c r="H60" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="14" t="s">
+      <c r="I60" s="26"/>
+    </row>
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -20819,11 +21374,12 @@
       <c r="H61" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="14" t="s">
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="12" t="s">
         <v>99</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -20841,11 +21397,12 @@
       <c r="H62" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="14" t="s">
+      <c r="I62" s="26"/>
+    </row>
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -20863,11 +21420,12 @@
       <c r="H63" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="14" t="s">
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -20885,11 +21443,12 @@
       <c r="H64" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="14" t="s">
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -20907,11 +21466,12 @@
       <c r="H65" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="14" t="s">
+      <c r="I65" s="26"/>
+    </row>
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -20929,11 +21489,12 @@
       <c r="H66" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="14" t="s">
+      <c r="I66" s="26"/>
+    </row>
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -20951,11 +21512,12 @@
       <c r="H67" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="14" t="s">
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="12" t="s">
         <v>397</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -20973,11 +21535,12 @@
       <c r="H68" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="14" t="s">
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -20995,11 +21558,12 @@
       <c r="H69" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="14" t="s">
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -21017,11 +21581,12 @@
       <c r="H70" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="14" t="s">
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -21039,17 +21604,18 @@
       <c r="H71" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A72" s="20" t="str">
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="str">
         <f>VLOOKUP(C72,Org1_!C72:D197,2,0)</f>
         <v>IV</v>
       </c>
-      <c r="B72" s="20" t="str">
+      <c r="B72" s="21" t="str">
         <f>VLOOKUP(C72,Org1_!F71:G197,2,0)</f>
         <v>Office Satisfaction</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -21067,11 +21633,14 @@
       <c r="H72" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.35">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="14" t="s">
+      <c r="I72" s="24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="12" t="s">
         <v>89</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -21089,22 +21658,15 @@
       <c r="H73" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="I73" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I73" xr:uid="{4E3F2BD4-B166-4BBE-B996-2E91F275F1AB}"/>
-  <mergeCells count="22">
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A71"/>
-    <mergeCell ref="B56:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:B48"/>
+  <mergeCells count="26">
+    <mergeCell ref="I56:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I5:I48"/>
+    <mergeCell ref="I49:I55"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A20:A22"/>
@@ -21115,6 +21677,18 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A56:A71"/>
+    <mergeCell ref="B56:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21124,47 +21698,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9095991-C872-4099-8415-0D77560D7A4D}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="26.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="114.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="114.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>361</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -21190,7 +21768,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -21216,11 +21794,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>210</v>
       </c>
       <c r="C4" t="s">
@@ -21241,10 +21819,13 @@
       <c r="H4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="I4" s="24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -21263,10 +21844,11 @@
       <c r="H5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" t="s">
         <v>213</v>
       </c>
@@ -21285,10 +21867,11 @@
       <c r="H6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" t="s">
         <v>368</v>
       </c>
@@ -21307,10 +21890,11 @@
       <c r="H7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" t="s">
         <v>86</v>
       </c>
@@ -21329,10 +21913,11 @@
       <c r="H8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" t="s">
         <v>211</v>
       </c>
@@ -21351,10 +21936,11 @@
       <c r="H9" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" t="s">
         <v>212</v>
       </c>
@@ -21373,8 +21959,9 @@
       <c r="H10" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -21399,12 +21986,13 @@
       <c r="H11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
@@ -21425,10 +22013,13 @@
       <c r="H12" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="I12" s="24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -21447,10 +22038,11 @@
       <c r="H13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -21469,10 +22061,11 @@
       <c r="H14" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -21491,10 +22084,11 @@
       <c r="H15" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -21513,12 +22107,13 @@
       <c r="H16" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C17" t="s">
@@ -21539,10 +22134,13 @@
       <c r="H17" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="I17" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" t="s">
         <v>105</v>
       </c>
@@ -21561,10 +22159,11 @@
       <c r="H18" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" t="s">
         <v>106</v>
       </c>
@@ -21583,10 +22182,11 @@
       <c r="H19" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" t="s">
         <v>107</v>
       </c>
@@ -21605,10 +22205,11 @@
       <c r="H20" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" t="s">
         <v>108</v>
       </c>
@@ -21627,10 +22228,11 @@
       <c r="H21" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -21649,10 +22251,11 @@
       <c r="H22" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" t="s">
         <v>110</v>
       </c>
@@ -21671,10 +22274,14 @@
       <c r="H23" t="s">
         <v>227</v>
       </c>
+      <c r="I23" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I23" xr:uid="{A9095991-C872-4099-8415-0D77560D7A4D}"/>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="I12:I16"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="B12:B16"/>
